--- a/POC/storage/invoices/INV_10002.xlsx
+++ b/POC/storage/invoices/INV_10002.xlsx
@@ -43,31 +43,31 @@
     <t>Invoice Date:</t>
   </si>
   <si>
-    <t>3/13/2025</t>
+    <t>3/14/2025</t>
   </si>
   <si>
     <t>Due Date:</t>
   </si>
   <si>
-    <t>4/12/2025</t>
+    <t>4/13/2025</t>
   </si>
   <si>
     <t>BILL TO:</t>
   </si>
   <si>
-    <t>TechSolutions Inc.</t>
-  </si>
-  <si>
-    <t>456 Tech Avenue, Tech City, 20002</t>
-  </si>
-  <si>
-    <t>Email: info@techsolutions.com</t>
-  </si>
-  <si>
-    <t>Phone: (234) 567-8901</t>
-  </si>
-  <si>
-    <t>VAT ID: VAT-23456789</t>
+    <t>ACME Corporation</t>
+  </si>
+  <si>
+    <t>123 Business Street, Business City, 10001</t>
+  </si>
+  <si>
+    <t>Email: contact@acme.com</t>
+  </si>
+  <si>
+    <t>Phone: (123) 456-7890</t>
+  </si>
+  <si>
+    <t>VAT ID: VAT-12345678</t>
   </si>
   <si>
     <t>No.</t>
